--- a/templates/stroustrup_toc.xlsx
+++ b/templates/stroustrup_toc.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcallah/GitProjects/OOP/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DDD8E6-8B29-7F4B-9660-D3C30B0A16ED}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="700" windowWidth="43080" windowHeight="25280" tabRatio="500"/>
+    <workbookView xWindow="10840" yWindow="700" windowWidth="34580" windowHeight="25600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="course_struct.txt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="568">
   <si>
     <t>Object-Oriented Programming</t>
   </si>
@@ -683,9 +684,6 @@
     <t>15.3 Function</t>
   </si>
   <si>
-    <t>15.3.3 Lambdaexpressions</t>
-  </si>
-  <si>
     <t>15.4 Axis</t>
   </si>
   <si>
@@ -956,12 +954,6 @@
     <t>20.3.1 Back to the example</t>
   </si>
   <si>
-    <t>20.4 Linkedlists</t>
-  </si>
-  <si>
-    <t>20.4.1 Listoperations</t>
-  </si>
-  <si>
     <t>20.4.2 Iteration</t>
   </si>
   <si>
@@ -1728,12 +1720,24 @@
   </si>
   <si>
     <t>about.html</t>
+  </si>
+  <si>
+    <t>15.3.3 Lambda expressions</t>
+  </si>
+  <si>
+    <t>https://github.com/gcallah/OOP/tree/03c8d77c5ee5faae253d8a8e989aa347af0c3c45/code</t>
+  </si>
+  <si>
+    <t>20.4.1 List operations</t>
+  </si>
+  <si>
+    <t>20.4 Linked lists</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1783,6 +1787,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2050,18 +2057,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A555" zoomScale="244" zoomScaleNormal="244" zoomScalePageLayoutView="244" workbookViewId="0">
-      <selection activeCell="C570" sqref="C570"/>
+    <sheetView tabSelected="1" topLeftCell="A362" zoomScale="244" zoomScaleNormal="244" zoomScalePageLayoutView="244" workbookViewId="0">
+      <selection activeCell="B383" sqref="B383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="48.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2073,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2081,10 +2088,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2100,7 +2107,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2108,10 +2115,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2151,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2159,10 +2166,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C16" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2274,10 +2281,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C31" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2309,7 +2316,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -2429,10 +2436,10 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C51" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2488,7 +2495,7 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2496,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2520,7 +2527,7 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2624,10 +2631,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C76" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2835,10 +2842,10 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C103" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2974,10 +2981,10 @@
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C121" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -3025,7 +3032,7 @@
         <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -3113,7 +3120,7 @@
         <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -3129,7 +3136,7 @@
         <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -3137,7 +3144,7 @@
         <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -3161,10 +3168,10 @@
         <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C145" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -3244,7 +3251,7 @@
         <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -3332,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -3340,10 +3347,10 @@
         <v>3</v>
       </c>
       <c r="B169" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C169" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -3455,7 +3462,7 @@
         <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -3471,7 +3478,7 @@
         <v>5</v>
       </c>
       <c r="B185" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -3479,10 +3486,10 @@
         <v>3</v>
       </c>
       <c r="B187" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C187" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -3618,10 +3625,10 @@
         <v>3</v>
       </c>
       <c r="B205" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C205" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -3781,10 +3788,10 @@
         <v>3</v>
       </c>
       <c r="B226" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C226" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -3795,7 +3802,7 @@
         <v>183</v>
       </c>
       <c r="C227" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -3931,10 +3938,10 @@
         <v>3</v>
       </c>
       <c r="B245" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C245" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -3998,7 +4005,7 @@
         <v>5</v>
       </c>
       <c r="B253" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -4006,7 +4013,7 @@
         <v>5</v>
       </c>
       <c r="B254" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -4078,10 +4085,10 @@
         <v>3</v>
       </c>
       <c r="B264" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C264" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -4113,7 +4120,7 @@
         <v>5</v>
       </c>
       <c r="B268" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -4121,7 +4128,7 @@
         <v>5</v>
       </c>
       <c r="B269" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -4129,7 +4136,7 @@
         <v>5</v>
       </c>
       <c r="B270" t="s">
-        <v>218</v>
+        <v>564</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -4137,7 +4144,7 @@
         <v>4</v>
       </c>
       <c r="B271" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -4145,7 +4152,7 @@
         <v>4</v>
       </c>
       <c r="B272" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -4153,7 +4160,7 @@
         <v>4</v>
       </c>
       <c r="B273" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -4161,7 +4168,7 @@
         <v>5</v>
       </c>
       <c r="B274" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -4169,7 +4176,7 @@
         <v>5</v>
       </c>
       <c r="B275" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -4177,7 +4184,7 @@
         <v>5</v>
       </c>
       <c r="B276" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -4185,7 +4192,7 @@
         <v>5</v>
       </c>
       <c r="B277" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -4193,10 +4200,10 @@
         <v>3</v>
       </c>
       <c r="B279" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C279" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -4204,7 +4211,7 @@
         <v>4</v>
       </c>
       <c r="B280" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -4212,7 +4219,7 @@
         <v>4</v>
       </c>
       <c r="B281" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -4220,7 +4227,7 @@
         <v>4</v>
       </c>
       <c r="B282" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -4228,7 +4235,7 @@
         <v>5</v>
       </c>
       <c r="B283" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -4236,7 +4243,7 @@
         <v>5</v>
       </c>
       <c r="B284" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -4244,7 +4251,7 @@
         <v>5</v>
       </c>
       <c r="B285" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -4252,7 +4259,7 @@
         <v>4</v>
       </c>
       <c r="B286" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -4260,7 +4267,7 @@
         <v>5</v>
       </c>
       <c r="B287" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -4268,7 +4275,7 @@
         <v>5</v>
       </c>
       <c r="B288" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -4276,7 +4283,7 @@
         <v>5</v>
       </c>
       <c r="B289" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -4284,7 +4291,7 @@
         <v>5</v>
       </c>
       <c r="B290" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -4292,7 +4299,7 @@
         <v>4</v>
       </c>
       <c r="B291" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -4300,7 +4307,7 @@
         <v>4</v>
       </c>
       <c r="B292" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -4308,7 +4315,7 @@
         <v>4</v>
       </c>
       <c r="B293" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -4316,7 +4323,7 @@
         <v>4</v>
       </c>
       <c r="B294" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -4324,7 +4331,7 @@
         <v>2</v>
       </c>
       <c r="B296" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -4332,10 +4339,10 @@
         <v>3</v>
       </c>
       <c r="B298" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C298" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -4343,7 +4350,7 @@
         <v>4</v>
       </c>
       <c r="B299" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -4351,7 +4358,7 @@
         <v>4</v>
       </c>
       <c r="B300" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -4359,7 +4366,7 @@
         <v>4</v>
       </c>
       <c r="B301" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -4367,7 +4374,7 @@
         <v>5</v>
       </c>
       <c r="B302" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -4375,7 +4382,7 @@
         <v>4</v>
       </c>
       <c r="B303" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -4383,7 +4390,7 @@
         <v>5</v>
       </c>
       <c r="B304" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -4391,7 +4398,7 @@
         <v>5</v>
       </c>
       <c r="B305" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -4399,7 +4406,7 @@
         <v>5</v>
       </c>
       <c r="B306" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -4407,7 +4414,7 @@
         <v>5</v>
       </c>
       <c r="B307" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -4415,7 +4422,7 @@
         <v>5</v>
       </c>
       <c r="B308" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -4423,7 +4430,7 @@
         <v>5</v>
       </c>
       <c r="B309" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -4431,7 +4438,7 @@
         <v>4</v>
       </c>
       <c r="B310" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -4439,7 +4446,7 @@
         <v>5</v>
       </c>
       <c r="B311" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -4447,7 +4454,7 @@
         <v>5</v>
       </c>
       <c r="B312" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -4455,7 +4462,7 @@
         <v>4</v>
       </c>
       <c r="B313" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -4463,7 +4470,7 @@
         <v>4</v>
       </c>
       <c r="B314" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -4471,7 +4478,7 @@
         <v>4</v>
       </c>
       <c r="B315" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -4479,7 +4486,7 @@
         <v>4</v>
       </c>
       <c r="B316" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -4487,7 +4494,7 @@
         <v>5</v>
       </c>
       <c r="B317" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -4495,7 +4502,7 @@
         <v>5</v>
       </c>
       <c r="B318" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -4503,7 +4510,7 @@
         <v>5</v>
       </c>
       <c r="B319" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -4511,7 +4518,7 @@
         <v>5</v>
       </c>
       <c r="B320" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -4519,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="B321" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -4527,7 +4534,7 @@
         <v>4</v>
       </c>
       <c r="B322" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -4535,7 +4542,7 @@
         <v>5</v>
       </c>
       <c r="B323" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -4543,10 +4550,10 @@
         <v>3</v>
       </c>
       <c r="B325" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C325" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -4554,7 +4561,7 @@
         <v>4</v>
       </c>
       <c r="B326" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -4562,7 +4569,7 @@
         <v>4</v>
       </c>
       <c r="B327" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -4570,7 +4577,7 @@
         <v>4</v>
       </c>
       <c r="B328" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -4578,7 +4585,7 @@
         <v>5</v>
       </c>
       <c r="B329" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -4586,7 +4593,7 @@
         <v>5</v>
       </c>
       <c r="B330" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -4594,7 +4601,7 @@
         <v>5</v>
       </c>
       <c r="B331" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -4602,7 +4609,7 @@
         <v>5</v>
       </c>
       <c r="B332" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -4610,7 +4617,7 @@
         <v>4</v>
       </c>
       <c r="B333" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -4618,7 +4625,7 @@
         <v>5</v>
       </c>
       <c r="B334" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -4626,7 +4633,7 @@
         <v>5</v>
       </c>
       <c r="B335" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -4634,7 +4641,7 @@
         <v>4</v>
       </c>
       <c r="B336" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -4642,7 +4649,7 @@
         <v>5</v>
       </c>
       <c r="B337" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -4650,7 +4657,7 @@
         <v>4</v>
       </c>
       <c r="B338" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -4658,7 +4665,7 @@
         <v>5</v>
       </c>
       <c r="B339" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -4666,7 +4673,7 @@
         <v>5</v>
       </c>
       <c r="B340" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -4674,7 +4681,7 @@
         <v>5</v>
       </c>
       <c r="B341" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -4682,7 +4689,7 @@
         <v>5</v>
       </c>
       <c r="B342" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -4690,7 +4697,7 @@
         <v>4</v>
       </c>
       <c r="B343" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -4698,7 +4705,7 @@
         <v>5</v>
       </c>
       <c r="B344" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -4706,7 +4713,7 @@
         <v>5</v>
       </c>
       <c r="B345" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -4714,7 +4721,7 @@
         <v>5</v>
       </c>
       <c r="B346" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -4722,10 +4729,10 @@
         <v>3</v>
       </c>
       <c r="B348" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C348" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -4733,7 +4740,7 @@
         <v>4</v>
       </c>
       <c r="B349" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -4741,7 +4748,7 @@
         <v>4</v>
       </c>
       <c r="B350" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -4749,7 +4756,7 @@
         <v>5</v>
       </c>
       <c r="B351" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -4757,7 +4764,7 @@
         <v>5</v>
       </c>
       <c r="B352" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -4765,7 +4772,7 @@
         <v>5</v>
       </c>
       <c r="B353" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -4773,7 +4780,7 @@
         <v>5</v>
       </c>
       <c r="B354" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -4781,7 +4788,7 @@
         <v>5</v>
       </c>
       <c r="B355" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -4789,7 +4796,7 @@
         <v>5</v>
       </c>
       <c r="B356" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -4797,7 +4804,7 @@
         <v>4</v>
       </c>
       <c r="B357" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -4805,7 +4812,7 @@
         <v>5</v>
       </c>
       <c r="B358" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -4813,7 +4820,7 @@
         <v>5</v>
       </c>
       <c r="B359" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -4821,7 +4828,7 @@
         <v>5</v>
       </c>
       <c r="B360" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -4829,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="B361" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -4837,7 +4844,7 @@
         <v>5</v>
       </c>
       <c r="B362" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -4845,7 +4852,7 @@
         <v>5</v>
       </c>
       <c r="B363" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -4853,7 +4860,7 @@
         <v>5</v>
       </c>
       <c r="B364" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -4861,7 +4868,7 @@
         <v>4</v>
       </c>
       <c r="B365" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -4869,7 +4876,7 @@
         <v>5</v>
       </c>
       <c r="B366" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -4877,7 +4884,7 @@
         <v>5</v>
       </c>
       <c r="B367" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -4885,7 +4892,7 @@
         <v>4</v>
       </c>
       <c r="B368" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -4893,7 +4900,7 @@
         <v>5</v>
       </c>
       <c r="B369" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -4901,7 +4908,7 @@
         <v>5</v>
       </c>
       <c r="B370" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -4909,7 +4916,7 @@
         <v>5</v>
       </c>
       <c r="B371" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -4917,7 +4924,7 @@
         <v>5</v>
       </c>
       <c r="B372" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -4925,7 +4932,7 @@
         <v>5</v>
       </c>
       <c r="B373" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
@@ -4933,7 +4940,7 @@
         <v>5</v>
       </c>
       <c r="B374" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -4941,10 +4948,10 @@
         <v>3</v>
       </c>
       <c r="B376" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C376" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -4952,7 +4959,7 @@
         <v>4</v>
       </c>
       <c r="B377" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -4960,7 +4967,7 @@
         <v>5</v>
       </c>
       <c r="B378" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -4968,7 +4975,7 @@
         <v>5</v>
       </c>
       <c r="B379" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -4976,7 +4983,7 @@
         <v>4</v>
       </c>
       <c r="B380" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -4984,7 +4991,7 @@
         <v>4</v>
       </c>
       <c r="B381" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -4992,7 +4999,7 @@
         <v>5</v>
       </c>
       <c r="B382" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -5000,7 +5007,7 @@
         <v>4</v>
       </c>
       <c r="B383" t="s">
-        <v>309</v>
+        <v>567</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
@@ -5008,7 +5015,7 @@
         <v>5</v>
       </c>
       <c r="B384" t="s">
-        <v>310</v>
+        <v>566</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -5016,7 +5023,7 @@
         <v>5</v>
       </c>
       <c r="B385" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -5024,7 +5031,7 @@
         <v>4</v>
       </c>
       <c r="B386" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
@@ -5032,7 +5039,7 @@
         <v>5</v>
       </c>
       <c r="B387" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -5040,7 +5047,7 @@
         <v>5</v>
       </c>
       <c r="B388" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -5048,7 +5055,7 @@
         <v>4</v>
       </c>
       <c r="B389" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -5056,7 +5063,7 @@
         <v>5</v>
       </c>
       <c r="B390" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
@@ -5064,7 +5071,7 @@
         <v>5</v>
       </c>
       <c r="B391" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
@@ -5072,7 +5079,7 @@
         <v>4</v>
       </c>
       <c r="B392" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -5080,7 +5087,7 @@
         <v>5</v>
       </c>
       <c r="B393" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -5088,7 +5095,7 @@
         <v>4</v>
       </c>
       <c r="B394" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -5096,7 +5103,7 @@
         <v>4</v>
       </c>
       <c r="B395" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -5104,7 +5111,7 @@
         <v>4</v>
       </c>
       <c r="B396" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
@@ -5112,7 +5119,7 @@
         <v>5</v>
       </c>
       <c r="B397" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -5120,10 +5127,10 @@
         <v>3</v>
       </c>
       <c r="B399" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C399" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -5131,7 +5138,7 @@
         <v>4</v>
       </c>
       <c r="B400" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -5139,7 +5146,7 @@
         <v>4</v>
       </c>
       <c r="B401" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -5147,7 +5154,7 @@
         <v>5</v>
       </c>
       <c r="B402" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -5155,7 +5162,7 @@
         <v>4</v>
       </c>
       <c r="B403" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -5163,7 +5170,7 @@
         <v>4</v>
       </c>
       <c r="B404" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -5171,7 +5178,7 @@
         <v>5</v>
       </c>
       <c r="B405" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -5179,7 +5186,7 @@
         <v>5</v>
       </c>
       <c r="B406" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -5187,7 +5194,7 @@
         <v>5</v>
       </c>
       <c r="B407" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -5195,7 +5202,7 @@
         <v>4</v>
       </c>
       <c r="B408" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -5203,7 +5210,7 @@
         <v>5</v>
       </c>
       <c r="B409" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -5211,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="B410" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -5219,7 +5226,7 @@
         <v>5</v>
       </c>
       <c r="B411" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -5227,7 +5234,7 @@
         <v>5</v>
       </c>
       <c r="B412" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -5235,7 +5242,7 @@
         <v>4</v>
       </c>
       <c r="B413" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -5243,7 +5250,7 @@
         <v>5</v>
       </c>
       <c r="B414" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -5251,7 +5258,7 @@
         <v>5</v>
       </c>
       <c r="B415" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -5259,7 +5266,7 @@
         <v>5</v>
       </c>
       <c r="B416" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
@@ -5267,7 +5274,7 @@
         <v>5</v>
       </c>
       <c r="B417" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
@@ -5275,7 +5282,7 @@
         <v>5</v>
       </c>
       <c r="B418" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -5283,7 +5290,7 @@
         <v>4</v>
       </c>
       <c r="B419" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -5291,7 +5298,7 @@
         <v>5</v>
       </c>
       <c r="B420" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -5299,7 +5306,7 @@
         <v>5</v>
       </c>
       <c r="B421" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -5307,7 +5314,7 @@
         <v>5</v>
       </c>
       <c r="B422" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
@@ -5315,7 +5322,7 @@
         <v>5</v>
       </c>
       <c r="B423" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
@@ -5323,7 +5330,7 @@
         <v>4</v>
       </c>
       <c r="B424" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -5331,7 +5338,7 @@
         <v>4</v>
       </c>
       <c r="B425" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -5339,7 +5346,7 @@
         <v>2</v>
       </c>
       <c r="B427" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -5347,10 +5354,10 @@
         <v>3</v>
       </c>
       <c r="B429" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C429" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -5358,7 +5365,7 @@
         <v>4</v>
       </c>
       <c r="B430" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
@@ -5366,7 +5373,7 @@
         <v>5</v>
       </c>
       <c r="B431" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
@@ -5374,7 +5381,7 @@
         <v>5</v>
       </c>
       <c r="B432" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
@@ -5382,7 +5389,7 @@
         <v>5</v>
       </c>
       <c r="B433" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -5390,7 +5397,7 @@
         <v>4</v>
       </c>
       <c r="B434" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -5398,7 +5405,7 @@
         <v>5</v>
       </c>
       <c r="B435" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -5406,7 +5413,7 @@
         <v>5</v>
       </c>
       <c r="B436" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -5414,7 +5421,7 @@
         <v>5</v>
       </c>
       <c r="B437" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -5422,7 +5429,7 @@
         <v>5</v>
       </c>
       <c r="B438" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -5430,7 +5437,7 @@
         <v>5</v>
       </c>
       <c r="B439" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -5438,7 +5445,7 @@
         <v>5</v>
       </c>
       <c r="B440" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -5446,7 +5453,7 @@
         <v>5</v>
       </c>
       <c r="B441" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -5454,7 +5461,7 @@
         <v>5</v>
       </c>
       <c r="B442" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
@@ -5462,10 +5469,10 @@
         <v>3</v>
       </c>
       <c r="B444" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C444" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -5473,7 +5480,7 @@
         <v>4</v>
       </c>
       <c r="B445" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
@@ -5481,7 +5488,7 @@
         <v>4</v>
       </c>
       <c r="B446" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -5489,7 +5496,7 @@
         <v>4</v>
       </c>
       <c r="B447" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -5497,7 +5504,7 @@
         <v>4</v>
       </c>
       <c r="B448" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -5505,7 +5512,7 @@
         <v>5</v>
       </c>
       <c r="B449" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -5513,7 +5520,7 @@
         <v>4</v>
       </c>
       <c r="B450" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -5521,7 +5528,7 @@
         <v>4</v>
       </c>
       <c r="B451" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -5529,7 +5536,7 @@
         <v>5</v>
       </c>
       <c r="B452" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -5537,7 +5544,7 @@
         <v>4</v>
       </c>
       <c r="B453" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -5545,7 +5552,7 @@
         <v>4</v>
       </c>
       <c r="B454" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -5553,7 +5560,7 @@
         <v>5</v>
       </c>
       <c r="B455" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -5561,7 +5568,7 @@
         <v>5</v>
       </c>
       <c r="B456" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -5569,7 +5576,7 @@
         <v>5</v>
       </c>
       <c r="B457" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -5577,7 +5584,7 @@
         <v>5</v>
       </c>
       <c r="B458" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -5585,7 +5592,7 @@
         <v>5</v>
       </c>
       <c r="B459" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -5593,7 +5600,7 @@
         <v>5</v>
       </c>
       <c r="B460" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -5601,7 +5608,7 @@
         <v>5</v>
       </c>
       <c r="B461" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -5609,7 +5616,7 @@
         <v>4</v>
       </c>
       <c r="B462" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -5617,7 +5624,7 @@
         <v>4</v>
       </c>
       <c r="B463" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -5625,10 +5632,10 @@
         <v>3</v>
       </c>
       <c r="B465" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C465" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -5636,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="B466" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -5644,7 +5651,7 @@
         <v>4</v>
       </c>
       <c r="B467" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -5652,7 +5659,7 @@
         <v>5</v>
       </c>
       <c r="B468" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -5660,7 +5667,7 @@
         <v>4</v>
       </c>
       <c r="B469" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -5668,7 +5675,7 @@
         <v>4</v>
       </c>
       <c r="B470" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -5676,7 +5683,7 @@
         <v>4</v>
       </c>
       <c r="B471" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -5684,7 +5691,7 @@
         <v>5</v>
       </c>
       <c r="B472" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -5692,7 +5699,7 @@
         <v>5</v>
       </c>
       <c r="B473" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -5700,7 +5707,7 @@
         <v>5</v>
       </c>
       <c r="B474" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -5708,7 +5715,7 @@
         <v>5</v>
       </c>
       <c r="B475" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -5716,7 +5723,7 @@
         <v>5</v>
       </c>
       <c r="B476" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -5724,7 +5731,7 @@
         <v>4</v>
       </c>
       <c r="B477" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -5732,7 +5739,7 @@
         <v>5</v>
       </c>
       <c r="B478" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -5740,7 +5747,7 @@
         <v>5</v>
       </c>
       <c r="B479" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -5748,7 +5755,7 @@
         <v>5</v>
       </c>
       <c r="B480" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -5756,7 +5763,7 @@
         <v>4</v>
       </c>
       <c r="B481" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -5764,7 +5771,7 @@
         <v>4</v>
       </c>
       <c r="B482" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -5772,7 +5779,7 @@
         <v>4</v>
       </c>
       <c r="B483" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -5780,7 +5787,7 @@
         <v>4</v>
       </c>
       <c r="B484" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -5788,10 +5795,10 @@
         <v>3</v>
       </c>
       <c r="B486" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C486" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -5799,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B487" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -5807,7 +5814,7 @@
         <v>4</v>
       </c>
       <c r="B488" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -5815,7 +5822,7 @@
         <v>5</v>
       </c>
       <c r="B489" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -5823,7 +5830,7 @@
         <v>5</v>
       </c>
       <c r="B490" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -5831,7 +5838,7 @@
         <v>5</v>
       </c>
       <c r="B491" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -5839,7 +5846,7 @@
         <v>4</v>
       </c>
       <c r="B492" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -5847,7 +5854,7 @@
         <v>5</v>
       </c>
       <c r="B493" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -5855,7 +5862,7 @@
         <v>5</v>
       </c>
       <c r="B494" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -5863,7 +5870,7 @@
         <v>5</v>
       </c>
       <c r="B495" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -5871,7 +5878,7 @@
         <v>5</v>
       </c>
       <c r="B496" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -5879,7 +5886,7 @@
         <v>4</v>
       </c>
       <c r="B497" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -5887,7 +5894,7 @@
         <v>5</v>
       </c>
       <c r="B498" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -5895,7 +5902,7 @@
         <v>5</v>
       </c>
       <c r="B499" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -5903,7 +5910,7 @@
         <v>5</v>
       </c>
       <c r="B500" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -5911,7 +5918,7 @@
         <v>5</v>
       </c>
       <c r="B501" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -5919,7 +5926,7 @@
         <v>4</v>
       </c>
       <c r="B502" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -5927,7 +5934,7 @@
         <v>5</v>
       </c>
       <c r="B503" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -5935,7 +5942,7 @@
         <v>5</v>
       </c>
       <c r="B504" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -5943,7 +5950,7 @@
         <v>5</v>
       </c>
       <c r="B505" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -5951,7 +5958,7 @@
         <v>5</v>
       </c>
       <c r="B506" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -5959,7 +5966,7 @@
         <v>5</v>
       </c>
       <c r="B507" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -5967,7 +5974,7 @@
         <v>5</v>
       </c>
       <c r="B508" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -5975,7 +5982,7 @@
         <v>4</v>
       </c>
       <c r="B509" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -5983,7 +5990,7 @@
         <v>5</v>
       </c>
       <c r="B510" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -5991,7 +5998,7 @@
         <v>5</v>
       </c>
       <c r="B511" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
@@ -5999,7 +6006,7 @@
         <v>5</v>
       </c>
       <c r="B512" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -6007,10 +6014,10 @@
         <v>3</v>
       </c>
       <c r="B514" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C514" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -6018,7 +6025,7 @@
         <v>4</v>
       </c>
       <c r="B515" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -6026,7 +6033,7 @@
         <v>5</v>
       </c>
       <c r="B516" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -6034,7 +6041,7 @@
         <v>4</v>
       </c>
       <c r="B517" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -6042,7 +6049,7 @@
         <v>4</v>
       </c>
       <c r="B518" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -6050,7 +6057,7 @@
         <v>5</v>
       </c>
       <c r="B519" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -6058,7 +6065,7 @@
         <v>5</v>
       </c>
       <c r="B520" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -6066,7 +6073,7 @@
         <v>5</v>
       </c>
       <c r="B521" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -6074,7 +6081,7 @@
         <v>5</v>
       </c>
       <c r="B522" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -6082,7 +6089,7 @@
         <v>5</v>
       </c>
       <c r="B523" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -6090,7 +6097,7 @@
         <v>4</v>
       </c>
       <c r="B524" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -6098,7 +6105,7 @@
         <v>4</v>
       </c>
       <c r="B525" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -6106,7 +6113,7 @@
         <v>4</v>
       </c>
       <c r="B526" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -6114,7 +6121,7 @@
         <v>5</v>
       </c>
       <c r="B527" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -6122,7 +6129,7 @@
         <v>4</v>
       </c>
       <c r="B528" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -6130,10 +6137,10 @@
         <v>3</v>
       </c>
       <c r="B530" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C530" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -6141,7 +6148,7 @@
         <v>4</v>
       </c>
       <c r="B531" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -6149,7 +6156,7 @@
         <v>5</v>
       </c>
       <c r="B532" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -6157,7 +6164,7 @@
         <v>5</v>
       </c>
       <c r="B533" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -6165,7 +6172,7 @@
         <v>5</v>
       </c>
       <c r="B534" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -6173,7 +6180,7 @@
         <v>4</v>
       </c>
       <c r="B535" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -6181,7 +6188,7 @@
         <v>5</v>
       </c>
       <c r="B536" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -6189,7 +6196,7 @@
         <v>5</v>
       </c>
       <c r="B537" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -6197,7 +6204,7 @@
         <v>5</v>
       </c>
       <c r="B538" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -6205,7 +6212,7 @@
         <v>5</v>
       </c>
       <c r="B539" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -6213,7 +6220,7 @@
         <v>5</v>
       </c>
       <c r="B540" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -6221,7 +6228,7 @@
         <v>4</v>
       </c>
       <c r="B541" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -6229,7 +6236,7 @@
         <v>5</v>
       </c>
       <c r="B542" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -6237,7 +6244,7 @@
         <v>5</v>
       </c>
       <c r="B543" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -6245,7 +6252,7 @@
         <v>5</v>
       </c>
       <c r="B544" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
@@ -6253,7 +6260,7 @@
         <v>5</v>
       </c>
       <c r="B545" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
@@ -6261,7 +6268,7 @@
         <v>5</v>
       </c>
       <c r="B546" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
@@ -6269,7 +6276,7 @@
         <v>5</v>
       </c>
       <c r="B547" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
@@ -6277,7 +6284,7 @@
         <v>5</v>
       </c>
       <c r="B548" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
@@ -6285,7 +6292,7 @@
         <v>4</v>
       </c>
       <c r="B549" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
@@ -6293,7 +6300,7 @@
         <v>4</v>
       </c>
       <c r="B550" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
@@ -6301,7 +6308,7 @@
         <v>5</v>
       </c>
       <c r="B551" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
@@ -6309,7 +6316,7 @@
         <v>5</v>
       </c>
       <c r="B552" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
@@ -6317,7 +6324,7 @@
         <v>5</v>
       </c>
       <c r="B553" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
@@ -6325,7 +6332,7 @@
         <v>5</v>
       </c>
       <c r="B554" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
@@ -6333,7 +6340,7 @@
         <v>4</v>
       </c>
       <c r="B555" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
@@ -6341,7 +6348,7 @@
         <v>5</v>
       </c>
       <c r="B556" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
@@ -6349,7 +6356,7 @@
         <v>5</v>
       </c>
       <c r="B557" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
@@ -6357,7 +6364,7 @@
         <v>5</v>
       </c>
       <c r="B558" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
@@ -6365,7 +6372,7 @@
         <v>4</v>
       </c>
       <c r="B559" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
@@ -6373,7 +6380,7 @@
         <v>4</v>
       </c>
       <c r="B560" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -6381,7 +6388,7 @@
         <v>5</v>
       </c>
       <c r="B561" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -6389,7 +6396,7 @@
         <v>5</v>
       </c>
       <c r="B562" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -6397,7 +6404,7 @@
         <v>5</v>
       </c>
       <c r="B563" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -6405,7 +6412,7 @@
         <v>4</v>
       </c>
       <c r="B564" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
@@ -6413,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="B566" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
@@ -6421,10 +6428,10 @@
         <v>2</v>
       </c>
       <c r="B567" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C567" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -6432,7 +6439,10 @@
         <v>2</v>
       </c>
       <c r="B568" t="s">
-        <v>500</v>
+        <v>497</v>
+      </c>
+      <c r="C568" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -6440,10 +6450,10 @@
         <v>1</v>
       </c>
       <c r="B570" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C570" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/templates/stroustrup_toc.xlsx
+++ b/templates/stroustrup_toc.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcallah/GitProjects/OOP/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DDD8E6-8B29-7F4B-9660-D3C30B0A16ED}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="700" windowWidth="34580" windowHeight="25600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10840" yWindow="700" windowWidth="34580" windowHeight="25600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="course_struct.txt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="572">
   <si>
     <t>Object-Oriented Programming</t>
   </si>
@@ -1732,12 +1731,24 @@
   </si>
   <si>
     <t>20.4 Linked lists</t>
+  </si>
+  <si>
+    <t>glyphicon-home</t>
+  </si>
+  <si>
+    <t>glyphicon-list</t>
+  </si>
+  <si>
+    <t>glyphicon-blackboard</t>
+  </si>
+  <si>
+    <t>glyphicon-info-sign</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2057,11 +2068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D570"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" zoomScale="244" zoomScaleNormal="244" zoomScalePageLayoutView="244" workbookViewId="0">
-      <selection activeCell="B383" sqref="B383"/>
+    <sheetView tabSelected="1" topLeftCell="A556" zoomScale="244" zoomScaleNormal="244" zoomScalePageLayoutView="244" workbookViewId="0">
+      <selection activeCell="E570" sqref="E570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2070,9 +2081,10 @@
     <col min="2" max="2" width="48.83203125" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -2083,7 +2095,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2093,16 +2105,22 @@
       <c r="C3" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2110,7 +2128,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -2121,7 +2139,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -2129,7 +2147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -2137,7 +2155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -2145,7 +2163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -2153,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -2161,7 +2179,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -6383,7 +6401,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>5</v>
       </c>
@@ -6391,7 +6409,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>5</v>
       </c>
@@ -6399,7 +6417,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>5</v>
       </c>
@@ -6407,7 +6425,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>4</v>
       </c>
@@ -6415,15 +6433,18 @@
         <v>462</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>1</v>
       </c>
       <c r="B566" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E566" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>2</v>
       </c>
@@ -6434,7 +6455,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>2</v>
       </c>
@@ -6445,7 +6466,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>1</v>
       </c>
@@ -6454,6 +6475,9 @@
       </c>
       <c r="C570" t="s">
         <v>563</v>
+      </c>
+      <c r="E570" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>
